--- a/doc/Daems需求&协议.xlsx
+++ b/doc/Daems需求&协议.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="修改历史" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="198">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,14 +274,6 @@
   </si>
   <si>
     <t>查询网内账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转账（多账号列表选择任一自己的账号）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持有量、寿命(流量币)（多账号列表）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -803,6 +795,27 @@
   </si>
   <si>
     <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有量、寿命(流量币)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、去掉钱包功能中多账户的相关内容
+2、钱包功能中新增转账记录功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,25 +1085,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1146,6 +1159,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000001040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1165,23 +1181,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1268,6 +1271,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1303,6 +1323,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1481,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G153"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1500,26 +1537,26 @@
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1530,10 +1567,10 @@
         <v>1001</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G4" s="17">
         <v>42701</v>
@@ -1547,10 +1584,10 @@
         <v>1001</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G5" s="32">
         <v>42702</v>
@@ -1560,10 +1597,10 @@
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6" s="33"/>
     </row>
@@ -1571,10 +1608,10 @@
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G7" s="33"/>
     </row>
@@ -1582,10 +1619,10 @@
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
       <c r="E8" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G8" s="34"/>
     </row>
@@ -1597,10 +1634,10 @@
         <v>1001</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G9" s="17">
         <v>42705</v>
@@ -1614,21 +1651,31 @@
         <v>1001</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G10" s="17">
         <v>42722</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="16"/>
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="C11" s="16">
+        <v>1003</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1001</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="17">
+        <v>42771</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C12" s="16"/>
@@ -2639,11 +2686,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2682,10 +2732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H48"/>
+  <dimension ref="B2:H49"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2702,7 +2752,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.15">
@@ -2749,7 +2799,7 @@
     </row>
     <row r="7" spans="2:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.15">
@@ -2770,7 +2820,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2790,7 +2840,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="41"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
@@ -2805,7 +2855,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2825,7 +2875,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="36"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
@@ -2840,7 +2890,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -2890,7 +2940,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="39"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="5" t="s">
         <v>55</v>
       </c>
@@ -2905,7 +2955,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -2938,10 +2988,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>14</v>
@@ -2954,7 +3004,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -2992,7 +3042,7 @@
     </row>
     <row r="23" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B23" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -3012,13 +3062,13 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -3030,7 +3080,7 @@
       <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="39"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="5" t="s">
         <v>9</v>
       </c>
@@ -3038,7 +3088,7 @@
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="38"/>
       <c r="C27" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>5</v>
@@ -3074,7 +3124,7 @@
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="38"/>
       <c r="C30" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>37</v>
@@ -3084,7 +3134,7 @@
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="39"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="5" t="s">
         <v>28</v>
       </c>
@@ -3096,11 +3146,11 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="39" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>63</v>
+        <v>193</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>5</v>
@@ -3110,9 +3160,9 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="36"/>
+      <c r="B33" s="41"/>
       <c r="C33" s="6" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>4</v>
@@ -3122,23 +3172,23 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="38"/>
       <c r="C35" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>37</v>
@@ -3148,136 +3198,136 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="39"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" s="37"/>
+      <c r="C37" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="35" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="36"/>
-      <c r="C38" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="36"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="6" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="36"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="41"/>
+      <c r="C41" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="36"/>
-      <c r="C41" s="6" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42" s="41"/>
+      <c r="C42" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="D42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B42" s="36"/>
-      <c r="C42" s="6" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43" s="41"/>
+      <c r="C43" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B43" s="40"/>
-      <c r="C43" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="40"/>
+      <c r="C44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B45" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="38"/>
-      <c r="C45" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B46" s="38"/>
       <c r="C46" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>40</v>
@@ -3286,40 +3336,52 @@
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B47" s="38"/>
       <c r="C47" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B48" s="39"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="9" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E48" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B49" s="37"/>
+      <c r="C49" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B37:B43"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3337,6 +3399,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="75.25" bestFit="1" customWidth="1"/>
@@ -3344,18 +3407,18 @@
   <sheetData>
     <row r="2" spans="2:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
@@ -3363,10 +3426,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="27" x14ac:dyDescent="0.15">
@@ -3374,10 +3437,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="27" x14ac:dyDescent="0.15">
@@ -3385,10 +3448,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
@@ -3396,10 +3459,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
@@ -3407,10 +3470,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
@@ -3418,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>174</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
@@ -3429,10 +3492,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
@@ -3440,134 +3503,134 @@
         <v>8</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B13" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B19" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B27" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
@@ -3575,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D29" s="15"/>
     </row>
@@ -3584,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D30" s="15"/>
     </row>
@@ -3593,7 +3656,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D31" s="15"/>
     </row>
@@ -3634,21 +3697,21 @@
   <sheetData>
     <row r="2" spans="2:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -3657,12 +3720,12 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="16">
         <v>2</v>
@@ -3671,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
@@ -3679,7 +3742,7 @@
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
@@ -3692,7 +3755,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.15">
@@ -3700,10 +3763,10 @@
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="F8" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
@@ -3711,7 +3774,7 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="F9" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G9" s="16">
         <v>1</v>
@@ -3722,7 +3785,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="F10" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G10" s="16">
         <v>2</v>
@@ -3735,21 +3798,21 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F13" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="I13" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -3757,13 +3820,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.15">
@@ -3771,13 +3834,13 @@
         <v>2</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.15">
@@ -3785,13 +3848,13 @@
         <v>3</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.15">
@@ -3799,13 +3862,13 @@
         <v>4</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.15">
@@ -3813,13 +3876,13 @@
         <v>5</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.15">
@@ -3827,13 +3890,13 @@
         <v>6</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.15">
@@ -3841,32 +3904,32 @@
         <v>7</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F23" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="I23" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.15">
@@ -3874,13 +3937,13 @@
         <v>1</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="6:9" x14ac:dyDescent="0.15">
@@ -3888,51 +3951,51 @@
         <v>2</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="6:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="F27" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F33" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F34" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G34" s="16">
         <v>1</v>
@@ -3940,7 +4003,7 @@
     </row>
     <row r="35" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F35" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G35" s="16">
         <v>2</v>
@@ -3948,21 +4011,21 @@
     </row>
     <row r="37" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F38" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="I38" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="39" spans="6:9" x14ac:dyDescent="0.15">
@@ -3970,13 +4033,13 @@
         <v>1</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="6:9" x14ac:dyDescent="0.15">
@@ -3984,13 +4047,13 @@
         <v>2</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="6:9" x14ac:dyDescent="0.15">
@@ -3998,13 +4061,13 @@
         <v>3</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="6:9" x14ac:dyDescent="0.15">
@@ -4012,13 +4075,13 @@
         <v>4</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="6:9" x14ac:dyDescent="0.15">
@@ -4026,32 +4089,32 @@
         <v>5</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F46" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="I46" s="18" t="s">
         <v>114</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="47" spans="6:9" x14ac:dyDescent="0.15">
@@ -4059,13 +4122,13 @@
         <v>1</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="6:9" x14ac:dyDescent="0.15">
@@ -4073,13 +4136,13 @@
         <v>2</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4105,18 +4168,18 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -4127,7 +4190,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C4" s="16">
         <v>2</v>
@@ -4138,7 +4201,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" s="16">
         <v>3</v>
@@ -4149,7 +4212,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" s="16">
         <v>4</v>
@@ -4212,13 +4275,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
@@ -4293,13 +4356,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
@@ -4374,13 +4437,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
@@ -4455,13 +4518,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">

--- a/doc/Daems需求&协议.xlsx
+++ b/doc/Daems需求&协议.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="修改历史" sheetId="7" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="7.节点" sheetId="9" r:id="rId8"/>
     <sheet name="8.通知" sheetId="10" r:id="rId9"/>
     <sheet name="接收消息流程" sheetId="11" r:id="rId10"/>
+    <sheet name="钱包功能设计" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="254">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -816,6 +817,230 @@
   <si>
     <t>1、去掉钱包功能中多账户的相关内容
 2、钱包功能中新增转账记录功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包功能设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳理功能，为实际UI设计提供输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt; 我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;钱包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量币界面参考聊天币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号：oie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是需要多增加个交易记录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余量：2312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 捐赠量：33445</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮后弹出窗口显示记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量币下方显示即将失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ewe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的流量币数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>234个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1小时内失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>：abe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账数量：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捐赠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2小时内失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>：abe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击二维码图片弹出大图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账数量：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>232个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3小时内失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种币要有不同的图标设计，如：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4小时内失效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易确认状态，确认后带有颜色显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随拖拽更新，按交易日期倒序排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次进入钱包页需要设置密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置密码前需要有提示：提示密码非常重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果密码丢失或忘记钱包中的币也会丢失。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还要有修改密码的功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随拖拽随加载更长时效的流量币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易记录，随拖拽更新，按交易日期倒序排列，每条记录要有收入或支出的特殊标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送流量币时金额不可输入，只显示只读的金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了扫码按钮还要增加一个通讯录弹出页用于选择地址的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除这个金额的显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人中的用户ID显示的是流量币钱包地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量币钱包地址和聊天币钱包地址可互相推导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量币和聊天币界面风格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要有明显的差异化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,7 +1105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -993,11 +1218,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1085,25 +1363,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1117,6 +1395,55 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1192,6 +1519,869 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直接箭头连接符 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="2085975"/>
+          <a:ext cx="1933575" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16487775" y="5391150"/>
+          <a:ext cx="2238375" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16764000" y="838200"/>
+          <a:ext cx="2095500" cy="123827"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19859625" y="1409700"/>
+          <a:ext cx="438150" cy="3400425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="3362325"/>
+          <a:ext cx="3657600" cy="3333750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561469</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="6572250"/>
+          <a:ext cx="4047619" cy="3514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3609976" y="4305300"/>
+          <a:ext cx="1238249" cy="2724150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>199520</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>161214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="6648450"/>
+          <a:ext cx="4038095" cy="5685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1152030</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9079</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334125" y="552450"/>
+          <a:ext cx="3961905" cy="3571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9134475" y="3600450"/>
+          <a:ext cx="1609725" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9667875" y="1600200"/>
+          <a:ext cx="1609725" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6648450" y="2476500"/>
+          <a:ext cx="914400" cy="4286250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="8582025"/>
+          <a:ext cx="1609725" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9420226" y="2752725"/>
+          <a:ext cx="5086349" cy="6848475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直接连接符 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477250" y="9410700"/>
+          <a:ext cx="1866900" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="9505950"/>
+          <a:ext cx="1609725" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209801" y="923925"/>
+          <a:ext cx="2209800" cy="1828251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4486275" y="285750"/>
+          <a:ext cx="9705975" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>126217</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>65685</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2759857" cy="992579"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6984217" y="580035"/>
+          <a:ext cx="2759857" cy="992579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>聊天币</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1271,23 +2461,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1323,23 +2496,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1518,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G153"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1678,11 +2834,21 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="16"/>
+      <c r="C12" s="16">
+        <v>1003</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1001</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G12" s="17">
+        <v>42771</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C13" s="16"/>
@@ -2730,6 +3896,981 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:AD69"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="21" max="21" width="10.5" customWidth="1"/>
+    <col min="22" max="22" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C2" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="T2" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="U2" s="47"/>
+      <c r="V2" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="52"/>
+    </row>
+    <row r="3" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C3" s="53"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="54"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="54"/>
+    </row>
+    <row r="4" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C4" s="53"/>
+      <c r="E4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="54"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="Q4" t="s">
+        <v>204</v>
+      </c>
+      <c r="T4" s="53"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="54"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="47"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="52"/>
+    </row>
+    <row r="5" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C5" s="53"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="54"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="Q5" t="s">
+        <v>206</v>
+      </c>
+      <c r="T5" s="53"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="W5" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="54"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="54"/>
+    </row>
+    <row r="6" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C6" s="53"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="54"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="Q6" t="s">
+        <v>209</v>
+      </c>
+      <c r="T6" s="53"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="54"/>
+      <c r="AA6" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB6" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC6" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD6" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C7" s="53"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="54"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="Q7" t="s">
+        <v>215</v>
+      </c>
+      <c r="T7" s="53"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="54"/>
+      <c r="AA7" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB7" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC7" s="59">
+        <v>123</v>
+      </c>
+      <c r="AD7" s="15"/>
+    </row>
+    <row r="8" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C8" s="53"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="54"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="Q8" t="s">
+        <v>218</v>
+      </c>
+      <c r="T8" s="46"/>
+      <c r="U8" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="V8" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="52"/>
+      <c r="AA8" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB8" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC8" s="59">
+        <v>23</v>
+      </c>
+      <c r="AD8" s="15"/>
+    </row>
+    <row r="9" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C9" s="53"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="54"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="Q9" t="s">
+        <v>252</v>
+      </c>
+      <c r="T9" s="53"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="54"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="54"/>
+    </row>
+    <row r="10" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C10" s="53"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="54"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="Q10" t="s">
+        <v>253</v>
+      </c>
+      <c r="T10" s="53"/>
+      <c r="U10" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="V10" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="W10" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="54"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="54"/>
+    </row>
+    <row r="11" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C11" s="53"/>
+      <c r="H11" s="54"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="W11" s="15"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="54"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="54"/>
+    </row>
+    <row r="12" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="54"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="50"/>
+      <c r="AC12" s="50"/>
+      <c r="AD12" s="54"/>
+    </row>
+    <row r="13" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="67"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="50"/>
+      <c r="AC13" s="50"/>
+      <c r="AD13" s="54"/>
+    </row>
+    <row r="14" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C14" s="53"/>
+      <c r="H14" s="54"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="V14" s="61" t="s">
+        <v>230</v>
+      </c>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="52"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="54"/>
+    </row>
+    <row r="15" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="54"/>
+      <c r="AA15" s="53"/>
+      <c r="AB15" s="50"/>
+      <c r="AC15" s="50"/>
+      <c r="AD15" s="54"/>
+    </row>
+    <row r="16" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="V16" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="W16" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="54"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="54"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" t="s">
+        <v>232</v>
+      </c>
+      <c r="T17" s="53"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="W17" s="15"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="54"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="54"/>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="54"/>
+      <c r="AA18" s="53"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="54"/>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="67"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="50"/>
+      <c r="AD19" s="54"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C20" s="53"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="54"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="V20" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="52"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="54"/>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C21" s="53"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="54"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="54"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="54"/>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C22" s="53"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="54"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="50"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="V22" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="W22" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="54"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="54"/>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C23" s="53"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="54"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="W23" s="15"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="54"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="50"/>
+      <c r="AD23" s="54"/>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C24" s="53"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="54"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="54"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="54"/>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C25" s="53"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="54"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="67"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="67"/>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C26" s="53"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="54"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="V26" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="52"/>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C27" s="53"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="54"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="54"/>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C28" s="53"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="54"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" t="s">
+        <v>238</v>
+      </c>
+      <c r="T28" s="53"/>
+      <c r="U28" s="62" t="s">
+        <v>223</v>
+      </c>
+      <c r="V28" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="W28" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="54"/>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C29" s="53"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="54"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="W29" s="15"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="54"/>
+      <c r="AC29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C30" s="53"/>
+      <c r="D30" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="54"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="54"/>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C31" s="53"/>
+      <c r="D31" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="54"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="67"/>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.15">
+      <c r="C32" s="53"/>
+      <c r="D32" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="54"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="54"/>
+    </row>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.15">
+      <c r="C33" s="53"/>
+      <c r="D33" s="56" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="54"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="54"/>
+    </row>
+    <row r="34" spans="3:27" x14ac:dyDescent="0.15">
+      <c r="C34" s="53"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="54"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="54"/>
+    </row>
+    <row r="35" spans="3:27" x14ac:dyDescent="0.15">
+      <c r="C35" s="53"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="54"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="54"/>
+    </row>
+    <row r="36" spans="3:27" x14ac:dyDescent="0.15">
+      <c r="C36" s="53"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="54"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="54"/>
+    </row>
+    <row r="37" spans="3:27" x14ac:dyDescent="0.15">
+      <c r="C37" s="65"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="67"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="67"/>
+    </row>
+    <row r="39" spans="3:27" x14ac:dyDescent="0.15">
+      <c r="AA39" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="3:27" x14ac:dyDescent="0.15">
+      <c r="P41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="3:27" x14ac:dyDescent="0.15">
+      <c r="P46" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="17:18" x14ac:dyDescent="0.15">
+      <c r="R57" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="17:18" x14ac:dyDescent="0.15">
+      <c r="Q63" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D68" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D69" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="U16:U17"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="U28:U29"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H49"/>
@@ -2820,7 +4961,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="41" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -2840,7 +4981,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="35"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
@@ -2855,7 +4996,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2875,7 +5016,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="41"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
@@ -2890,7 +5031,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -2940,7 +5081,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="37"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="5" t="s">
         <v>55</v>
       </c>
@@ -2955,7 +5096,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -3004,7 +5145,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="35" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -3062,13 +5203,13 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -3080,7 +5221,7 @@
       <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="37"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="5" t="s">
         <v>9</v>
       </c>
@@ -3134,7 +5275,7 @@
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="37"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="5" t="s">
         <v>28</v>
       </c>
@@ -3146,7 +5287,7 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="35" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -3160,7 +5301,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="41"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="6" t="s">
         <v>194</v>
       </c>
@@ -3172,7 +5313,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="41"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="6" t="s">
         <v>195</v>
       </c>
@@ -3184,7 +5325,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="37" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -3210,7 +5351,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="37"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="5" t="s">
         <v>62</v>
       </c>
@@ -3222,7 +5363,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="35" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -3236,7 +5377,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="41"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="6" t="s">
         <v>38</v>
       </c>
@@ -3248,7 +5389,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="41"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="6" t="s">
         <v>59</v>
       </c>
@@ -3260,7 +5401,7 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="41"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="6" t="s">
         <v>64</v>
       </c>
@@ -3272,7 +5413,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B42" s="41"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="6" t="s">
         <v>50</v>
       </c>
@@ -3284,7 +5425,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B43" s="41"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="6" t="s">
         <v>51</v>
       </c>
@@ -3308,7 +5449,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -3358,7 +5499,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B49" s="37"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="9" t="s">
         <v>65</v>
       </c>
@@ -3371,17 +5512,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B25:B31"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="B38:B44"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B25:B31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Daems需求&协议.xlsx
+++ b/doc/Daems需求&协议.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="255">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1041,6 +1041,10 @@
   </si>
   <si>
     <t>要有明显的差异化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一次交易及确认状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1345,57 +1349,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1428,13 +1381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
@@ -1444,6 +1391,63 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2382,6 +2386,141 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1047751" y="1609725"/>
+          <a:ext cx="1419224" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="1304925"/>
+          <a:ext cx="638175" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="2362200"/>
+          <a:ext cx="638175" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2733,10 +2872,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C5" s="29">
+      <c r="C5" s="52">
         <v>1002</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="52">
         <v>1001</v>
       </c>
       <c r="E5" s="16" t="s">
@@ -2745,42 +2884,42 @@
       <c r="F5" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="55">
         <v>42702</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="16" t="s">
         <v>73</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="33"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="16" t="s">
         <v>87</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="33"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="16" t="s">
         <v>164</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="57"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C9" s="16">
@@ -3898,10 +4037,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AD69"/>
+  <dimension ref="A2:AD69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3914,137 +4053,137 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="T2" s="46" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="T2" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="48" t="s">
+      <c r="U2" s="30"/>
+      <c r="V2" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="52"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="35"/>
     </row>
     <row r="3" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C3" s="53"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="54"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="54"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="37"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="37"/>
     </row>
     <row r="4" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C4" s="53"/>
-      <c r="E4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="54"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
+      <c r="C4" s="36"/>
+      <c r="E4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="37"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
       <c r="Q4" t="s">
         <v>204</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50" t="s">
+      <c r="T4" s="36"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="54"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="52"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="37"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="35"/>
     </row>
     <row r="5" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C5" s="53"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="54"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="37"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
       <c r="Q5" t="s">
         <v>206</v>
       </c>
-      <c r="T5" s="53"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50" t="s">
+      <c r="T5" s="36"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="W5" s="50" t="s">
+      <c r="W5" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="54"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="54"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="37"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="37"/>
     </row>
     <row r="6" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C6" s="53"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="54"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="37"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
       <c r="Q6" t="s">
         <v>209</v>
       </c>
-      <c r="T6" s="53"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="57" t="s">
+      <c r="T6" s="36"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="40" t="s">
         <v>210</v>
       </c>
       <c r="W6" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="54"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="37"/>
       <c r="AA6" s="15" t="s">
         <v>212</v>
       </c>
@@ -4059,763 +4198,766 @@
       </c>
     </row>
     <row r="7" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C7" s="53"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="54"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="37"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
       <c r="Q7" t="s">
         <v>215</v>
       </c>
-      <c r="T7" s="53"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="54"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="37"/>
       <c r="AA7" s="15" t="s">
         <v>216</v>
       </c>
       <c r="AB7" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="AC7" s="59">
+      <c r="AC7" s="42">
         <v>123</v>
       </c>
       <c r="AD7" s="15"/>
     </row>
     <row r="8" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C8" s="53"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="54"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="37"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
       <c r="Q8" t="s">
         <v>218</v>
       </c>
-      <c r="T8" s="46"/>
-      <c r="U8" s="47" t="s">
+      <c r="T8" s="29"/>
+      <c r="U8" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="V8" s="61" t="s">
+      <c r="V8" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="52"/>
-      <c r="AA8" s="57" t="s">
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="35"/>
+      <c r="AA8" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="AB8" s="57" t="s">
+      <c r="AB8" s="40" t="s">
         <v>222</v>
       </c>
-      <c r="AC8" s="59">
+      <c r="AC8" s="42">
         <v>23</v>
       </c>
       <c r="AD8" s="15"/>
     </row>
     <row r="9" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C9" s="53"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="54"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="37"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
       <c r="Q9" t="s">
         <v>252</v>
       </c>
-      <c r="T9" s="53"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="54"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="54"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="37"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="37"/>
     </row>
     <row r="10" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C10" s="53"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="54"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="37"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
       <c r="Q10" t="s">
         <v>253</v>
       </c>
-      <c r="T10" s="53"/>
-      <c r="U10" s="62" t="s">
+      <c r="T10" s="36"/>
+      <c r="U10" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="V10" s="63" t="s">
+      <c r="V10" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="W10" s="50" t="s">
+      <c r="W10" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="54"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="54"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="37"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="37"/>
     </row>
     <row r="11" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C11" s="53"/>
-      <c r="H11" s="54"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="50" t="s">
+      <c r="C11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="33" t="s">
         <v>227</v>
       </c>
       <c r="W11" s="15"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="54"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="54"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="37"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="37"/>
     </row>
     <row r="12" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C12" s="53"/>
-      <c r="H12" s="54"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="T12" s="53"/>
+      <c r="C12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="T12" s="36"/>
       <c r="U12" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="54"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="54"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="37"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="37"/>
     </row>
     <row r="13" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C13" s="53"/>
-      <c r="H13" s="54"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="67"/>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="54"/>
+      <c r="C13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="48"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="37"/>
     </row>
     <row r="14" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C14" s="53"/>
-      <c r="H14" s="54"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="47" t="s">
+      <c r="C14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="V14" s="61" t="s">
+      <c r="V14" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="52"/>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="50"/>
-      <c r="AC14" s="50"/>
-      <c r="AD14" s="54"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="35"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="37"/>
     </row>
     <row r="15" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C15" s="53"/>
-      <c r="H15" s="54"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="54"/>
-      <c r="AA15" s="53"/>
-      <c r="AB15" s="50"/>
-      <c r="AC15" s="50"/>
-      <c r="AD15" s="54"/>
+      <c r="C15" s="36"/>
+      <c r="H15" s="37"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="37"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="37"/>
     </row>
     <row r="16" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C16" s="53"/>
-      <c r="H16" s="54"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="62" t="s">
+      <c r="C16" s="36"/>
+      <c r="H16" s="37"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="V16" s="63" t="s">
+      <c r="V16" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="W16" s="50" t="s">
+      <c r="W16" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="54"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="50"/>
-      <c r="AC16" s="50"/>
-      <c r="AD16" s="54"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C17" s="53"/>
-      <c r="H17" s="54"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="37"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="37"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
       <c r="P17" t="s">
         <v>232</v>
       </c>
-      <c r="T17" s="53"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="50" t="s">
+      <c r="T17" s="36"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="33" t="s">
         <v>233</v>
       </c>
       <c r="W17" s="15"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="54"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="50"/>
-      <c r="AC17" s="50"/>
-      <c r="AD17" s="54"/>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C18" s="53"/>
-      <c r="H18" s="54"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="T18" s="53"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="37"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="37"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C18" s="36"/>
+      <c r="H18" s="37"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="T18" s="36"/>
       <c r="U18" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="54"/>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="54"/>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C19" s="53"/>
-      <c r="H19" s="54"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="67"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="54"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C20" s="53"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="54"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="47" t="s">
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="37"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="37"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C19" s="36"/>
+      <c r="H19" s="37"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="48"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="37"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C20" s="36"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="37"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="V20" s="61" t="s">
+      <c r="V20" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="52"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="54"/>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C21" s="53"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="54"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="54"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="54"/>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C22" s="53"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="54"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="50"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="62" t="s">
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="35"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="37"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C21" s="36"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="37"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="37"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="37"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C22" s="36"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="37"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="33"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="V22" s="63" t="s">
+      <c r="V22" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="W22" s="50" t="s">
+      <c r="W22" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="54"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="54"/>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C23" s="53"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="54"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="50" t="s">
+      <c r="X22" s="33"/>
+      <c r="Y22" s="37"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="37"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="37"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="33" t="s">
         <v>233</v>
       </c>
       <c r="W23" s="15"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="54"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="50"/>
-      <c r="AD23" s="54"/>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C24" s="53"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="54"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="T24" s="53"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="37"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="37"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C24" s="36"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="37"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="T24" s="36"/>
       <c r="U24" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="54"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="54"/>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C25" s="53"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50" t="s">
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="37"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="37"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C25" s="36"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="54"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="67"/>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="66"/>
-      <c r="AC25" s="66"/>
-      <c r="AD25" s="67"/>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C26" s="53"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="54"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="47" t="s">
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="37"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="48"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="48"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C26" s="36"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="37"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="V26" s="61" t="s">
+      <c r="V26" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="52"/>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C27" s="53"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="54"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="54"/>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C28" s="53"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="54"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="35"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C27" s="36"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="37"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="37"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C28" s="36"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="37"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
       <c r="P28" t="s">
         <v>238</v>
       </c>
-      <c r="T28" s="53"/>
-      <c r="U28" s="62" t="s">
+      <c r="T28" s="36"/>
+      <c r="U28" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="V28" s="63" t="s">
+      <c r="V28" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="W28" s="50" t="s">
+      <c r="W28" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="54"/>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C29" s="53"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="54"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="50" t="s">
+      <c r="X28" s="33"/>
+      <c r="Y28" s="37"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C29" s="36"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="37"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="33" t="s">
         <v>233</v>
       </c>
       <c r="W29" s="15"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="54"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="37"/>
       <c r="AC29" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C30" s="53"/>
-      <c r="D30" s="50" t="s">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C30" s="36"/>
+      <c r="D30" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="54"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="T30" s="53"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="37"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="T30" s="36"/>
       <c r="U30" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="54"/>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C31" s="53"/>
-      <c r="D31" s="50" t="s">
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="37"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C31" s="36"/>
+      <c r="D31" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="54"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="67"/>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.15">
-      <c r="C32" s="53"/>
-      <c r="D32" s="50" t="s">
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="37"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="48"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="C32" s="36"/>
+      <c r="D32" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="54"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="70"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="50"/>
-      <c r="Y32" s="54"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="37"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="37"/>
     </row>
     <row r="33" spans="3:27" x14ac:dyDescent="0.15">
-      <c r="C33" s="53"/>
-      <c r="D33" s="56" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="54"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="54"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="37"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="37"/>
     </row>
     <row r="34" spans="3:27" x14ac:dyDescent="0.15">
-      <c r="C34" s="53"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="54"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="54"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="37"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="37"/>
     </row>
     <row r="35" spans="3:27" x14ac:dyDescent="0.15">
-      <c r="C35" s="53"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="54"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="54"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="37"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="37"/>
     </row>
     <row r="36" spans="3:27" x14ac:dyDescent="0.15">
-      <c r="C36" s="53"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="54"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="50"/>
-      <c r="Y36" s="54"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="37"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="37"/>
     </row>
     <row r="37" spans="3:27" x14ac:dyDescent="0.15">
-      <c r="C37" s="65"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="67"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="66"/>
-      <c r="X37" s="66"/>
-      <c r="Y37" s="67"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="48"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="48"/>
     </row>
     <row r="39" spans="3:27" x14ac:dyDescent="0.15">
       <c r="AA39" t="s">
@@ -4961,7 +5103,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -4981,7 +5123,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="41"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
@@ -4996,7 +5138,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="62" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -5016,7 +5158,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="36"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
@@ -5031,7 +5173,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="59" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -5048,7 +5190,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="38"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="5" t="s">
         <v>33</v>
       </c>
@@ -5063,7 +5205,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="38"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
@@ -5081,7 +5223,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="39"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="5" t="s">
         <v>55</v>
       </c>
@@ -5096,7 +5238,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="62" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -5113,7 +5255,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="40"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="6" t="s">
         <v>57</v>
       </c>
@@ -5145,7 +5287,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="62" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -5162,7 +5304,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="40"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="6" t="s">
         <v>27</v>
       </c>
@@ -5203,13 +5345,13 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="59" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="59" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -5217,17 +5359,17 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="38"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="39"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" s="38"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="5" t="s">
         <v>108</v>
       </c>
@@ -5239,7 +5381,7 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="38"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="5" t="s">
         <v>49</v>
       </c>
@@ -5251,7 +5393,7 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="38"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="5" t="s">
         <v>44</v>
       </c>
@@ -5263,7 +5405,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="38"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="5" t="s">
         <v>66</v>
       </c>
@@ -5275,7 +5417,7 @@
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="39"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="5" t="s">
         <v>28</v>
       </c>
@@ -5287,7 +5429,7 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="62" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -5301,7 +5443,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="36"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="6" t="s">
         <v>194</v>
       </c>
@@ -5313,7 +5455,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="36"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="6" t="s">
         <v>195</v>
       </c>
@@ -5325,7 +5467,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="59" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -5339,7 +5481,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="38"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="5" t="s">
         <v>61</v>
       </c>
@@ -5351,7 +5493,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="39"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="5" t="s">
         <v>62</v>
       </c>
@@ -5363,7 +5505,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="62" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -5377,7 +5519,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="36"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="6" t="s">
         <v>38</v>
       </c>
@@ -5389,7 +5531,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="36"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="6" t="s">
         <v>59</v>
       </c>
@@ -5401,7 +5543,7 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="36"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="6" t="s">
         <v>64</v>
       </c>
@@ -5413,7 +5555,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B42" s="36"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="6" t="s">
         <v>50</v>
       </c>
@@ -5425,7 +5567,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B43" s="36"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="6" t="s">
         <v>51</v>
       </c>
@@ -5437,7 +5579,7 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B44" s="40"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="6" t="s">
         <v>52</v>
       </c>
@@ -5449,7 +5591,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="59" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="9" t="s">
@@ -5463,7 +5605,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B46" s="38"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="9" t="s">
         <v>30</v>
       </c>
@@ -5475,7 +5617,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B47" s="38"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="9" t="s">
         <v>31</v>
       </c>
@@ -5487,7 +5629,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B48" s="38"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="9" t="s">
         <v>32</v>
       </c>
@@ -5499,7 +5641,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B49" s="39"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="9" t="s">
         <v>65</v>
       </c>
@@ -5512,17 +5654,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B25:B31"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="B38:B44"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B25:B31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5661,28 +5803,28 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="43"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="15" t="s">
         <v>93</v>
       </c>

--- a/doc/Daems需求&协议.xlsx
+++ b/doc/Daems需求&协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="修改历史" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="274">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,10 +543,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.1.3 MID1-UI_SendChatContent_Req</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.1 术语定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1045,6 +1041,70 @@
   </si>
   <si>
     <t>最近一次交易及确认状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "header": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "SendingTime": 1486887952,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "CommandId": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "AppId": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "MessageId": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "Version": 1001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "EventId": 100861,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Sender": "1DQe9F3agsDcr4qoTZ3Sush4e88Nv9tNxa",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "Recipient": "5DQe9F3agsDcr4qoTZ3Sush4e88Nv9tNxa",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ContentType": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "PackageSeq": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TotalPackage": 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "data": "e4bda0e5a5bdefbc8c4461656d73"</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>3.1.3 报文样例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1.3 MID1-UI_SendChatContent_Req</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加聊天消息的样例报文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2814,7 +2874,7 @@
   <dimension ref="A2:G153"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2914,10 +2974,10 @@
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
       <c r="E8" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>165</v>
       </c>
       <c r="G8" s="57"/>
     </row>
@@ -2929,10 +2989,10 @@
         <v>1001</v>
       </c>
       <c r="E9" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>171</v>
       </c>
       <c r="G9" s="17">
         <v>42705</v>
@@ -2946,10 +3006,10 @@
         <v>1001</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G10" s="17">
         <v>42722</v>
@@ -2963,10 +3023,10 @@
         <v>1001</v>
       </c>
       <c r="E11" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>196</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>197</v>
       </c>
       <c r="G11" s="17">
         <v>42771</v>
@@ -2980,21 +3040,31 @@
         <v>1001</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>199</v>
       </c>
       <c r="G12" s="17">
         <v>42771</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="16">
+        <v>1003</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1001</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="17">
+        <v>42778</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C14" s="16"/>
@@ -4039,7 +4109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -4054,11 +4124,11 @@
   <sheetData>
     <row r="2" spans="3:30" x14ac:dyDescent="0.15">
       <c r="C2" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D2" s="30"/>
       <c r="E2" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
@@ -4070,11 +4140,11 @@
       <c r="N2" s="33"/>
       <c r="O2" s="33"/>
       <c r="T2" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="U2" s="30"/>
       <c r="V2" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W2" s="30"/>
       <c r="X2" s="30"/>
@@ -4112,12 +4182,12 @@
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
       <c r="Q4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T4" s="36"/>
       <c r="U4" s="33"/>
       <c r="V4" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W4" s="33"/>
       <c r="X4" s="33"/>
@@ -4141,15 +4211,15 @@
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="Q5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T5" s="36"/>
       <c r="U5" s="33"/>
       <c r="V5" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="W5" s="33" t="s">
         <v>207</v>
-      </c>
-      <c r="W5" s="33" t="s">
-        <v>208</v>
       </c>
       <c r="X5" s="33"/>
       <c r="Y5" s="37"/>
@@ -4172,26 +4242,26 @@
       <c r="N6" s="33"/>
       <c r="O6" s="33"/>
       <c r="Q6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T6" s="36"/>
       <c r="U6" s="33"/>
       <c r="V6" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="W6" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="W6" s="15" t="s">
-        <v>211</v>
       </c>
       <c r="X6" s="33"/>
       <c r="Y6" s="37"/>
       <c r="AA6" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB6" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="AB6" s="15" t="s">
+      <c r="AC6" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="AC6" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="AD6" s="15" t="s">
         <v>72</v>
@@ -4211,7 +4281,7 @@
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
       <c r="Q7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T7" s="36"/>
       <c r="U7" s="33"/>
@@ -4220,10 +4290,10 @@
       <c r="X7" s="39"/>
       <c r="Y7" s="37"/>
       <c r="AA7" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB7" s="15" t="s">
         <v>216</v>
-      </c>
-      <c r="AB7" s="15" t="s">
-        <v>217</v>
       </c>
       <c r="AC7" s="42">
         <v>123</v>
@@ -4244,23 +4314,23 @@
       <c r="N8" s="33"/>
       <c r="O8" s="33"/>
       <c r="Q8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="T8" s="29"/>
       <c r="U8" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="V8" s="44" t="s">
         <v>219</v>
-      </c>
-      <c r="V8" s="44" t="s">
-        <v>220</v>
       </c>
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
       <c r="Y8" s="35"/>
       <c r="AA8" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB8" s="40" t="s">
         <v>221</v>
-      </c>
-      <c r="AB8" s="40" t="s">
-        <v>222</v>
       </c>
       <c r="AC8" s="42">
         <v>23</v>
@@ -4281,7 +4351,7 @@
       <c r="N9" s="33"/>
       <c r="O9" s="33"/>
       <c r="Q9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T9" s="36"/>
       <c r="U9" s="33"/>
@@ -4308,17 +4378,17 @@
       <c r="N10" s="33"/>
       <c r="O10" s="33"/>
       <c r="Q10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T10" s="36"/>
       <c r="U10" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V10" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="W10" s="33" t="s">
         <v>225</v>
-      </c>
-      <c r="W10" s="33" t="s">
-        <v>226</v>
       </c>
       <c r="X10" s="33"/>
       <c r="Y10" s="37"/>
@@ -4339,7 +4409,7 @@
       <c r="T11" s="36"/>
       <c r="U11" s="70"/>
       <c r="V11" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="W11" s="15"/>
       <c r="X11" s="33"/>
@@ -4360,7 +4430,7 @@
       <c r="O12" s="33"/>
       <c r="T12" s="36"/>
       <c r="U12" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V12" s="33"/>
       <c r="W12" s="33"/>
@@ -4402,10 +4472,10 @@
       <c r="O14" s="33"/>
       <c r="T14" s="29"/>
       <c r="U14" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="V14" s="44" t="s">
         <v>229</v>
-      </c>
-      <c r="V14" s="44" t="s">
-        <v>230</v>
       </c>
       <c r="W14" s="30"/>
       <c r="X14" s="30"/>
@@ -4446,13 +4516,13 @@
       <c r="O16" s="33"/>
       <c r="T16" s="36"/>
       <c r="U16" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V16" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W16" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X16" s="33"/>
       <c r="Y16" s="37"/>
@@ -4471,12 +4541,12 @@
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
       <c r="P17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T17" s="36"/>
       <c r="U17" s="70"/>
       <c r="V17" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W17" s="15"/>
       <c r="X17" s="33"/>
@@ -4497,7 +4567,7 @@
       <c r="O18" s="33"/>
       <c r="T18" s="36"/>
       <c r="U18" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V18" s="33"/>
       <c r="W18" s="33"/>
@@ -4543,10 +4613,10 @@
       <c r="O20" s="33"/>
       <c r="T20" s="29"/>
       <c r="U20" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="V20" s="44" t="s">
         <v>234</v>
-      </c>
-      <c r="V20" s="44" t="s">
-        <v>235</v>
       </c>
       <c r="W20" s="30"/>
       <c r="X20" s="30"/>
@@ -4595,13 +4665,13 @@
       <c r="O22" s="33"/>
       <c r="T22" s="36"/>
       <c r="U22" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="V22" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="V22" s="45" t="s">
-        <v>224</v>
-      </c>
       <c r="W22" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X22" s="33"/>
       <c r="Y22" s="37"/>
@@ -4612,7 +4682,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="33"/>
@@ -4629,7 +4699,7 @@
       <c r="T23" s="36"/>
       <c r="U23" s="70"/>
       <c r="V23" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W23" s="15"/>
       <c r="X23" s="33"/>
@@ -4654,7 +4724,7 @@
       <c r="O24" s="33"/>
       <c r="T24" s="36"/>
       <c r="U24" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V24" s="33"/>
       <c r="W24" s="33"/>
@@ -4669,7 +4739,7 @@
       <c r="C25" s="36"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
@@ -4706,10 +4776,10 @@
       <c r="O26" s="33"/>
       <c r="T26" s="29"/>
       <c r="U26" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="V26" s="44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="W26" s="30"/>
       <c r="X26" s="30"/>
@@ -4749,17 +4819,17 @@
       <c r="N28" s="33"/>
       <c r="O28" s="33"/>
       <c r="P28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T28" s="36"/>
       <c r="U28" s="69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V28" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W28" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="X28" s="33"/>
       <c r="Y28" s="37"/>
@@ -4780,19 +4850,19 @@
       <c r="T29" s="36"/>
       <c r="U29" s="70"/>
       <c r="V29" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W29" s="15"/>
       <c r="X29" s="33"/>
       <c r="Y29" s="37"/>
       <c r="AC29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C30" s="36"/>
       <c r="D30" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
@@ -4806,7 +4876,7 @@
       <c r="O30" s="33"/>
       <c r="T30" s="36"/>
       <c r="U30" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V30" s="33"/>
       <c r="W30" s="33"/>
@@ -4816,7 +4886,7 @@
     <row r="31" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C31" s="36"/>
       <c r="D31" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -4838,7 +4908,7 @@
     <row r="32" spans="1:30" x14ac:dyDescent="0.15">
       <c r="C32" s="36"/>
       <c r="D32" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
@@ -4860,7 +4930,7 @@
     <row r="33" spans="3:27" x14ac:dyDescent="0.15">
       <c r="C33" s="36"/>
       <c r="D33" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
@@ -4961,42 +5031,42 @@
     </row>
     <row r="39" spans="3:27" x14ac:dyDescent="0.15">
       <c r="AA39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="3:27" x14ac:dyDescent="0.15">
       <c r="P41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="3:27" x14ac:dyDescent="0.15">
       <c r="P46" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="17:18" x14ac:dyDescent="0.15">
       <c r="R57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="17:18" x14ac:dyDescent="0.15">
       <c r="Q63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5433,7 +5503,7 @@
         <v>45</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>5</v>
@@ -5445,7 +5515,7 @@
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="64"/>
       <c r="C33" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>4</v>
@@ -5457,7 +5527,7 @@
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" s="64"/>
       <c r="C34" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>4</v>
@@ -5560,7 +5630,7 @@
         <v>50</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>8</v>
@@ -5690,7 +5760,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
@@ -5764,10 +5834,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
@@ -5775,10 +5845,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
@@ -5786,15 +5856,15 @@
         <v>8</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B13" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
@@ -5831,7 +5901,7 @@
     </row>
     <row r="19" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B19" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
@@ -5847,18 +5917,18 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>100</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>100</v>
@@ -5869,7 +5939,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>100</v>
@@ -5880,7 +5950,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>100</v>
@@ -5891,7 +5961,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>100</v>
@@ -5902,18 +5972,18 @@
     </row>
     <row r="27" spans="2:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B27" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
@@ -5921,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D29" s="15"/>
     </row>
@@ -5930,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="15"/>
     </row>
@@ -5939,7 +6009,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" s="15"/>
     </row>
@@ -5961,10 +6031,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I48"/>
+  <dimension ref="B2:K48"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5978,7 +6048,7 @@
     <col min="9" max="9" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>106</v>
       </c>
@@ -5986,13 +6056,13 @@
         <v>107</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" s="27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
         <v>109</v>
       </c>
@@ -6005,8 +6075,11 @@
       <c r="F3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
         <v>110</v>
       </c>
@@ -6020,28 +6093,37 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="F5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
       <c r="F7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
@@ -6051,8 +6133,11 @@
       <c r="G8" s="18" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -6062,8 +6147,11 @@
       <c r="G9" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -6073,18 +6161,27 @@
       <c r="G10" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+      <c r="K12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="F13" s="18" t="s">
         <v>111</v>
       </c>
@@ -6097,111 +6194,135 @@
       <c r="I13" s="18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="K13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="F14" s="16">
         <v>1</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+      <c r="K14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="F15" s="16">
         <v>2</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="F16" s="16">
         <v>3</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H16" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="K16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F17" s="16">
         <v>4</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F18" s="16">
         <v>5</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="K18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F19" s="16">
         <v>6</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+      <c r="K19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F20" s="16">
         <v>7</v>
       </c>
       <c r="G20" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" s="19" t="s">
+      <c r="K20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F22" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F23" s="18" t="s">
         <v>111</v>
       </c>
@@ -6215,57 +6336,57 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F24" s="16">
         <v>1</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F25" s="16">
         <v>2</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="6:9" ht="22.5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="F27" s="27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F28" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F28" t="s">
+    <row r="29" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F29" t="s">
+    <row r="30" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="6:9" x14ac:dyDescent="0.15">
-      <c r="F30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.15">
@@ -6278,7 +6399,7 @@
     </row>
     <row r="34" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F34" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G34" s="16">
         <v>1</v>
@@ -6286,7 +6407,7 @@
     </row>
     <row r="35" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F35" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G35" s="16">
         <v>2</v>
@@ -6294,7 +6415,7 @@
     </row>
     <row r="37" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="6:9" x14ac:dyDescent="0.15">
@@ -6316,13 +6437,13 @@
         <v>1</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="6:9" x14ac:dyDescent="0.15">
@@ -6330,13 +6451,13 @@
         <v>2</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="6:9" x14ac:dyDescent="0.15">
@@ -6344,13 +6465,13 @@
         <v>3</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H41" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I41" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="42" spans="6:9" x14ac:dyDescent="0.15">
@@ -6358,13 +6479,13 @@
         <v>4</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="6:9" x14ac:dyDescent="0.15">
@@ -6372,18 +6493,18 @@
         <v>5</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="6:9" x14ac:dyDescent="0.15">
       <c r="F45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="6:9" x14ac:dyDescent="0.15">
@@ -6405,13 +6526,13 @@
         <v>1</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="6:9" x14ac:dyDescent="0.15">
@@ -6419,13 +6540,13 @@
         <v>2</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6457,12 +6578,12 @@
         <v>107</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
@@ -6473,7 +6594,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="16">
         <v>2</v>
@@ -6484,7 +6605,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="16">
         <v>3</v>
@@ -6495,7 +6616,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="16">
         <v>4</v>
@@ -6564,7 +6685,7 @@
         <v>107</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
@@ -6645,7 +6766,7 @@
         <v>107</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
@@ -6726,7 +6847,7 @@
         <v>107</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
@@ -6807,7 +6928,7 @@
         <v>107</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
